--- a/biology/Zoologie/Barynotus/Barynotus.xlsx
+++ b/biology/Zoologie/Barynotus/Barynotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barynotus est un genre de coléoptères de la sous-famille des Entiminae (famille des Curculionidae).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre de charançons plutôt grands comprend des espèces caractérisées par leur rostre large et épais comprenant des ptérigons développés. Le prothorax est puissant, les élytres se terminant en pointe comprennent des stries et des interstries marquées et des mouchetures transversales plus ou moins visibles.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (1er octobre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (1er octobre 2023) :
 Barynotus affinis Solari, 1943
 Barynotus alpestris Gistel, 1848
 Barynotus alternans Boheman, 1834
@@ -607,10 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Barynotus Germar, 1817[1].
-Barynotus a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Barynotus Germar, 1817.
+Barynotus a pour synonymes :
 Bargnotus Gistel, 1856
 Kissodontus Desbrochers, 1909
 Margaritius Pesarini &amp; Pedroni, 2011</t>
